--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461713.8658881942</v>
+        <v>459275.3927884465</v>
       </c>
     </row>
     <row r="7">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>298.9787503760149</v>
       </c>
       <c r="F2" t="n">
-        <v>119.4288296870095</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>193.0439640562708</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>51.56887637424928</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>267.8635071306609</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>332.2855371695801</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>323.6637250476221</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>79.49505480544796</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>122.4424591077293</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.4571321610379</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>124.278187532929</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.6293919502455823</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>132.5235168489656</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819342</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.92847288553236</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819354</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>41.74133133758998</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.85274231757755</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>22.6126310577748</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>99.97427419833434</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365948</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>176.1811323375803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1285.591601078694</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1285.591601078694</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.591601078694</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="E2" t="n">
-        <v>899.8033484804496</v>
+        <v>261.5060195193257</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>261.5060195193257</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>261.5060195193257</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379707</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.330773118627</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1672.191441142816</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8175152271517</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8175152271517</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D4" t="n">
-        <v>362.8175152271517</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E4" t="n">
-        <v>362.8175152271517</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F4" t="n">
-        <v>215.9275677292414</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>215.9275677292414</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4525,13 +4525,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>609.6550370402499</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8175152271517</v>
+        <v>381.6654861422326</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2024.960096412931</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C5" t="n">
-        <v>1655.99757947252</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1148.09812134261</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1148.09812134261</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649823</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2788.565186649823</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2415.099428388743</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2024.960096412931</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383.3613929424835</v>
+        <v>528.5554336401428</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1846.996512931475</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1557.893646057118</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1303.209157851231</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1013.791987814271</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X7" t="n">
-        <v>785.8024369162533</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.0098577727232</v>
+        <v>528.5554336401428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>953.6440892486887</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>456.9449278938906</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="C10" t="n">
-        <v>456.9449278938906</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>67.14786587687595</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>67.14786587687595</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X10" t="n">
-        <v>456.9449278938906</v>
+        <v>617.5020034330389</v>
       </c>
       <c r="Y10" t="n">
-        <v>456.9449278938906</v>
+        <v>396.7094242895088</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,19 +5036,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5066,13 +5066,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452603</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718124</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2425.823211978714</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2242.968377633618</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2023.366912656559</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.291686000756</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.60719779487</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.190027757909</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>962.2004768598915</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.4078977163614</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684177</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876717</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5522,37 +5522,37 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138372</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703071</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297695</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,13 +7491,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7734,10 +7734,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-5.515673818967502e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>82.95161969624691</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>65.92956871065311</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.513749910243533e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.44677382458929</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>125.5054897610379</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345295416</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>112.9792378643597</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462284</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>126.0028419604376</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>65.5498640939345</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295159</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>962136.675827268</v>
+        <v>962136.6758272689</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1039480.962009968</v>
+        <v>1039480.962009967</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1039480.962009968</v>
+        <v>1039480.962009967</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1039480.962009968</v>
+        <v>1039480.962009967</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631197</v>
+        <v>354580.0968631199</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>383394.6348527532</v>
+        <v>383394.634852753</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="I2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="K2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>383394.6348527529</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>383394.6348527529</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>383394.6348527527</v>
+      </c>
+      <c r="P2" t="n">
         <v>383394.6348527528</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.726386926748091e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47799.18331047942</v>
+        <v>47799.18331047973</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="F4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26436,16 +26436,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1129897.772736346</v>
+        <v>-1130084.166124885</v>
       </c>
       <c r="C6" t="n">
-        <v>191706.8331009966</v>
+        <v>191706.8331009965</v>
       </c>
       <c r="D6" t="n">
-        <v>191706.8331009964</v>
+        <v>191706.8331009958</v>
       </c>
       <c r="E6" t="n">
-        <v>-54307.38903030298</v>
+        <v>-54342.12695573848</v>
       </c>
       <c r="F6" t="n">
-        <v>271105.0727770524</v>
+        <v>271070.3348516167</v>
       </c>
       <c r="G6" t="n">
-        <v>271105.0727770528</v>
+        <v>271070.3348516168</v>
       </c>
       <c r="H6" t="n">
-        <v>271105.0727770524</v>
+        <v>271070.3348516165</v>
       </c>
       <c r="I6" t="n">
-        <v>271105.0727770521</v>
+        <v>271070.3348516166</v>
       </c>
       <c r="J6" t="n">
-        <v>53573.87037977492</v>
+        <v>53539.13245433895</v>
       </c>
       <c r="K6" t="n">
-        <v>271105.0727770523</v>
+        <v>271070.3348516166</v>
       </c>
       <c r="L6" t="n">
-        <v>271105.0727770524</v>
+        <v>271070.3348516164</v>
       </c>
       <c r="M6" t="n">
-        <v>186050.0448415404</v>
+        <v>186015.3069161048</v>
       </c>
       <c r="N6" t="n">
-        <v>271105.0727770522</v>
+        <v>271070.3348516166</v>
       </c>
       <c r="O6" t="n">
-        <v>271105.0727770522</v>
+        <v>271070.3348516164</v>
       </c>
       <c r="P6" t="n">
-        <v>271105.0727770523</v>
+        <v>271070.3348516165</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4472160547019</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>101.5638003310497</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>185.0656032482489</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>93.18613854007151</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>18.65949120593012</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>22.39750445110286</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>83.21232069408939</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>140.0538944707212</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>96.14219424436551</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.2767095024427</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>257.6521825393328</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>165.3964163087826</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>93.18613854007151</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-2.495430374854276e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29256,7 +29256,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31838,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,28 +32081,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>732.4825987614911</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34454,31 +34454,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164529</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>590.3485648394727</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
